--- a/src/main/resources/report template.xlsx
+++ b/src/main/resources/report template.xlsx
@@ -291,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m:s.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +318,23 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -349,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -468,11 +485,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,6 +562,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7357,8 +7431,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3829050</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -7420,14 +7494,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3952875</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -7495,14 +7569,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238251</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3710941</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3615691</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -7570,14 +7644,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3714750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -7645,14 +7719,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -7715,14 +7789,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3714750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -7784,14 +7858,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4267199</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -7859,8 +7933,8 @@
       <xdr:rowOff>85723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9969</xdr:rowOff>
     </xdr:to>
@@ -8870,8 +8944,8 @@
       <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -8902,8 +8976,8 @@
       <xdr:rowOff>108790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
@@ -8928,14 +9002,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>104768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771526</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>176952</xdr:rowOff>
     </xdr:to>
@@ -16300,62 +16374,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="70.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="7"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B58" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="23"/>
+      <c r="D59" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" s="23"/>
+      <c r="G59" s="21" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="E59:F59"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
